--- a/data/trans_bre/P15_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,29%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>363,02%</t>
+          <t>324,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,11</t>
+          <t>0,11; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,52</t>
+          <t>-0,9; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,24</t>
+          <t>-0,09; 1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,87</t>
+          <t>-0,55; 1,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,02</t>
+          <t>-0,87; 2,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 485,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 180,02</t>
+          <t>-36,61; 185,11</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-67,16%</t>
+          <t>-69,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,76</t>
+          <t>-0,49; 0,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,13</t>
+          <t>-0,93; 0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,03</t>
+          <t>-3,67; 0,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 305,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 0,0</t>
+          <t>-4,25; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1001,22 +1001,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1054,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,71</t>
+          <t>0,11; 0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,5</t>
+          <t>-0,32; 0,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,63</t>
+          <t>-0,34; 0,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,66</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,47</t>
+          <t>-1,12; 1,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1084,22 +1084,29 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 537,19</t>
+          <t>-67,54; 431,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 427,21</t>
+          <t>-65,95; 501,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 103,33</t>
+          <t>-41,93; 106,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-13,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>324,75%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>73,63%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>26,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4608808233110841</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1131832392104228</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5085403231022778</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2840063764600602</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5052553129980479</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2237022648291848</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>3.354609534952716</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8123890059877197</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2655052489806658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 0,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 1,13</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 1,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 2,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-36,61; 185,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.1119098837197973</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9942090370111487</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.07411649124511699</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4866277416370911</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8666363678474756</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3660763843920084</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.184818663436654</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.5298489220813782</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.124051482907954</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.008679247038683</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.091539702124628</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="n">
+        <v>1.851135800352686</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>35,49%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-69,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-51,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 0,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 0,11</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 0,83</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1098378843619265</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2435271043738909</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.247423193672748</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="n">
+        <v>0.390810917194947</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.6760974027083788</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.5148244953197109</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-0.4615147961984329</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.9052068235764377</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.674923531123005</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>0.8963973629862183</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1207210629622704</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8320181634423888</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +835,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>25,43%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>38,08%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>62,42%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.6693615046169774</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9705538481475102</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.185443755851729</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.367996057968345</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 0,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 0,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 0,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 1,43</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-67,54; 431,04</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-65,95; 501,12</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-41,93; 106,82</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.909859002600243</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.303382695224379</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.696217623523187</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.579000892824767</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3047985228779416</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.06498104460810976</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1527601734913734</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2085508479629244</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1143485836962263</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2681796946210821</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4627875060417339</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.670605043073802</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.05639681362364893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1106148912980497</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3345587885672446</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2992556431464444</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.253906511810967</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.118629880980664</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6589264198906052</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.6247242874907224</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4193064714072285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7366648303294645</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4798900348374531</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6177189535213674</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6859926576937704</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.426493549142241</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>7.26983252094682</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.618414353097472</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>5.178444263952183</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.068160899712082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1045,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
